--- a/data/jadval/jadval.xlsx
+++ b/data/jadval/jadval.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.alimjanov\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sanjar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EA1A8A-DF75-4FE2-8A1D-20A0708B2501}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFCEBD7-CA70-4903-BEEA-933862DD06F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheet1!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
   <si>
     <t>№</t>
   </si>
@@ -66,9 +69,6 @@
     <t>Gafforov Fazliddin</t>
   </si>
   <si>
-    <t>Аliboev Turgʼun</t>
-  </si>
-  <si>
     <t>Yusubjanov Raxmonjon</t>
   </si>
   <si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Gazizov Ilyas</t>
+  </si>
+  <si>
+    <t>Aliboev Turgʼun</t>
   </si>
 </sst>
 </file>
@@ -216,7 +219,7 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -494,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection sqref="A1:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,14 +533,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>6454069077</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>958225185</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E2" s="7">
-        <v>45717</v>
+        <v>45748</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -545,16 +550,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="6">
-        <v>958225185</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>861012650</v>
+      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="7">
-        <v>45718</v>
+        <v>45749</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -562,16 +565,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="6">
-        <v>6101774359</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>1903483436</v>
+      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E4" s="7">
-        <v>45719</v>
+        <v>45750</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -579,14 +580,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="6">
-        <v>314962485</v>
+        <v>467528127</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E5" s="7">
-        <v>45720</v>
+        <v>45751</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -594,14 +595,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="6">
-        <v>861012650</v>
+        <v>201854243</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E6" s="7">
-        <v>45721</v>
+        <v>45752</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -609,14 +610,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="6">
-        <v>1144423093</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>451116693</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D7" s="4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E7" s="7">
-        <v>45722</v>
+        <v>45754</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -624,16 +627,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="6">
-        <v>6093689347</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>6454069077</v>
+      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E8" s="7">
-        <v>45723</v>
+        <v>45753</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -641,14 +642,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="6">
-        <v>201854243</v>
+        <v>816296586</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E9" s="7">
-        <v>45724</v>
+        <v>45755</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -656,16 +657,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="6">
-        <v>293873703</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>1144423093</v>
+      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E10" s="7">
-        <v>45725</v>
+        <v>45753</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -673,14 +672,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="6">
-        <v>668964660</v>
+        <v>2048737265</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E11" s="7">
-        <v>45726</v>
+        <v>45756</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -688,14 +687,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="6">
-        <v>467528127</v>
-      </c>
-      <c r="C12" s="1"/>
+        <v>293873703</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D12" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E12" s="7">
-        <v>45727</v>
+        <v>45757</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -703,16 +704,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="6">
-        <v>1284829957</v>
+        <v>293047337</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="E13" s="7">
-        <v>45728</v>
+        <v>45758</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -720,14 +721,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="6">
-        <v>1903483436</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>6093689347</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D14" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E14" s="7">
-        <v>45729</v>
+        <v>45759</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -735,14 +738,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="6">
-        <v>7212550821</v>
-      </c>
-      <c r="C15" s="1"/>
+        <v>1284829957</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D15" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E15" s="7">
-        <v>45730</v>
+        <v>45760</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -750,14 +755,14 @@
         <v>15</v>
       </c>
       <c r="B16" s="6">
-        <v>895311248</v>
+        <v>314962485</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E16" s="7">
-        <v>45731</v>
+        <v>45761</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -765,14 +770,14 @@
         <v>16</v>
       </c>
       <c r="B17" s="6">
-        <v>816296586</v>
+        <v>7212550821</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E17" s="7">
-        <v>45732</v>
+        <v>45729</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -780,16 +785,14 @@
         <v>17</v>
       </c>
       <c r="B18" s="6">
-        <v>451116693</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>895311248</v>
+      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E18" s="7">
-        <v>45733</v>
+        <v>45762</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -797,14 +800,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="6">
-        <v>2048737265</v>
-      </c>
-      <c r="C19" s="1"/>
+        <v>6101774359</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D19" s="4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E19" s="7">
-        <v>45734</v>
+        <v>45763</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -812,14 +817,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="6">
-        <v>6454069077</v>
-      </c>
-      <c r="C20" s="1"/>
+        <v>958225185</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D20" s="4" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E20" s="7">
-        <v>45735</v>
+        <v>45764</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -827,16 +834,14 @@
         <v>20</v>
       </c>
       <c r="B21" s="6">
-        <v>958225185</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>861012650</v>
+      </c>
+      <c r="C21" s="1"/>
       <c r="D21" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E21" s="7">
-        <v>45736</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -844,16 +849,14 @@
         <v>21</v>
       </c>
       <c r="B22" s="6">
-        <v>6101774359</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>467528127</v>
+      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E22" s="7">
-        <v>45737</v>
+        <v>45766</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -861,16 +864,14 @@
         <v>22</v>
       </c>
       <c r="B23" s="6">
-        <v>293047337</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>29</v>
+        <v>201854243</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E23" s="7">
-        <v>45738</v>
+        <v>45767</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -878,14 +879,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="6">
-        <v>314962485</v>
-      </c>
-      <c r="C24" s="1"/>
+        <v>451116693</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D24" s="4" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E24" s="7">
-        <v>45739</v>
+        <v>45767</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -893,14 +896,14 @@
         <v>24</v>
       </c>
       <c r="B25" s="6">
-        <v>861012650</v>
+        <v>6454069077</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E25" s="7">
-        <v>45740</v>
+        <v>45768</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -908,16 +911,14 @@
         <v>25</v>
       </c>
       <c r="B26" s="6">
-        <v>6093689347</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>816296586</v>
+      </c>
+      <c r="C26" s="1"/>
       <c r="D26" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E26" s="7">
-        <v>45741</v>
+        <v>45769</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -925,14 +926,14 @@
         <v>26</v>
       </c>
       <c r="B27" s="6">
-        <v>201854243</v>
+        <v>1144423093</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E27" s="7">
-        <v>45742</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -940,16 +941,14 @@
         <v>27</v>
       </c>
       <c r="B28" s="6">
-        <v>293873703</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>2048737265</v>
+      </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E28" s="7">
-        <v>45743</v>
+        <v>45771</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -957,14 +956,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="6">
-        <v>668964660</v>
-      </c>
-      <c r="C29" s="1"/>
+        <v>293873703</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D29" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E29" s="7">
-        <v>45744</v>
+        <v>45772</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -972,14 +973,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="6">
-        <v>467528127</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="4" t="s">
-        <v>22</v>
+        <v>293047337</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="E30" s="7">
-        <v>45745</v>
+        <v>45773</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -987,16 +990,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="6">
-        <v>1284829957</v>
+        <v>6093689347</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E31" s="7">
-        <v>45746</v>
+        <v>45774</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1004,14 +1007,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="6">
-        <v>7212550821</v>
-      </c>
-      <c r="C32" s="1"/>
+        <v>1284829957</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D32" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E32" s="7">
-        <v>45747</v>
+        <v>45775</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1019,16 +1024,14 @@
         <v>32</v>
       </c>
       <c r="B33" s="6">
-        <v>958225185</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>314962485</v>
+      </c>
+      <c r="C33" s="1"/>
       <c r="D33" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E33" s="7">
-        <v>45748</v>
+        <v>45776</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1036,30 +1039,37 @@
         <v>33</v>
       </c>
       <c r="B34" s="6">
-        <v>861012650</v>
+        <v>7212550821</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E34" s="7">
-        <v>45749</v>
+        <v>45777</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
+      <c r="A35" s="1"/>
       <c r="B35" s="6">
-        <v>1903483436</v>
+        <v>668964660</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="7">
-        <v>45750</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="6">
+        <v>1903483436</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
